--- a/Doc/Samples/Multisport/Zamówienie  Multisport sierpień 2014.xlsx
+++ b/Doc/Samples/Multisport/Zamówienie  Multisport sierpień 2014.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15195" windowHeight="8895"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="15195" windowHeight="8895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wszyscy" sheetId="1" r:id="rId1"/>
     <sheet name="przyjścia" sheetId="4" r:id="rId2"/>
     <sheet name="odejścia" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -2307,158 +2307,161 @@
     <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2487,9 +2490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2867,8 +2867,8 @@
   </sheetPr>
   <dimension ref="A1:GP227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2887,16 +2887,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="262"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -2926,15 +2926,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="249" t="s">
+      <c r="E5" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="249"/>
+      <c r="F5" s="265"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="249" t="s">
+      <c r="H5" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="249"/>
+      <c r="I5" s="265"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="s">
@@ -2973,10 +2973,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="123"/>
-      <c r="B8" s="220">
+      <c r="B8" s="242">
         <v>2</v>
       </c>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="258" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="127"/>
@@ -2991,8 +2991,8 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="123"/>
-      <c r="B9" s="221"/>
-      <c r="C9" s="244"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="127"/>
       <c r="E9" s="201">
         <v>2</v>
@@ -3005,8 +3005,8 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="123"/>
-      <c r="B10" s="223"/>
-      <c r="C10" s="227"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="254"/>
       <c r="D10" s="127"/>
       <c r="E10" s="201">
         <v>3</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="123"/>
-      <c r="B21" s="236">
+      <c r="B21" s="263">
         <v>13</v>
       </c>
-      <c r="C21" s="238" t="s">
+      <c r="C21" s="266" t="s">
         <v>204</v>
       </c>
       <c r="D21" s="122"/>
@@ -3204,8 +3204,8 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="123"/>
-      <c r="B22" s="236"/>
-      <c r="C22" s="238"/>
+      <c r="B22" s="263"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="122"/>
       <c r="E22" s="209">
         <v>9</v>
@@ -3219,8 +3219,8 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="123"/>
-      <c r="B23" s="236"/>
-      <c r="C23" s="238"/>
+      <c r="B23" s="263"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="122"/>
       <c r="E23" s="209">
         <v>10</v>
@@ -3233,8 +3233,8 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
-      <c r="B24" s="236"/>
-      <c r="C24" s="238"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="122"/>
       <c r="E24" s="209">
         <v>11</v>
@@ -3247,8 +3247,8 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="123"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="238"/>
+      <c r="B25" s="263"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="122"/>
       <c r="E25" s="209">
         <v>12</v>
@@ -3261,8 +3261,8 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="250"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="267"/>
       <c r="D26" s="122"/>
       <c r="E26" s="209">
         <v>13</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="123"/>
-      <c r="B31" s="235">
+      <c r="B31" s="251">
         <v>18</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="255" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="127"/>
@@ -3349,8 +3349,8 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="123"/>
-      <c r="B32" s="235"/>
-      <c r="C32" s="234"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="255"/>
       <c r="D32" s="127"/>
       <c r="E32" s="206">
         <v>15</v>
@@ -3363,8 +3363,8 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="123"/>
-      <c r="B33" s="235"/>
-      <c r="C33" s="234"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="255"/>
       <c r="D33" s="127"/>
       <c r="E33" s="206"/>
       <c r="F33" s="216"/>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="123"/>
-      <c r="B36" s="228">
+      <c r="B36" s="225">
         <v>21</v>
       </c>
-      <c r="C36" s="231" t="s">
+      <c r="C36" s="240" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="122"/>
@@ -3415,8 +3415,8 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="123"/>
-      <c r="B37" s="239"/>
-      <c r="C37" s="233"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="122"/>
       <c r="E37" s="209">
         <v>16</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="123"/>
-      <c r="B42" s="220">
+      <c r="B42" s="242">
         <v>26</v>
       </c>
-      <c r="C42" s="234" t="s">
+      <c r="C42" s="255" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="127"/>
@@ -3511,8 +3511,8 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="123"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="251"/>
+      <c r="B43" s="243"/>
+      <c r="C43" s="224"/>
       <c r="D43" s="127"/>
       <c r="E43" s="206">
         <v>20</v>
@@ -3525,8 +3525,8 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="123"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="251"/>
+      <c r="B44" s="243"/>
+      <c r="C44" s="224"/>
       <c r="D44" s="127"/>
       <c r="E44" s="206">
         <v>21</v>
@@ -3539,8 +3539,8 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="123"/>
-      <c r="B45" s="252"/>
-      <c r="C45" s="251"/>
+      <c r="B45" s="243"/>
+      <c r="C45" s="224"/>
       <c r="D45" s="127"/>
       <c r="E45" s="206">
         <v>22</v>
@@ -3553,8 +3553,8 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="123"/>
-      <c r="B46" s="252"/>
-      <c r="C46" s="251"/>
+      <c r="B46" s="243"/>
+      <c r="C46" s="224"/>
       <c r="D46" s="127"/>
       <c r="E46" s="206">
         <v>23</v>
@@ -3567,8 +3567,8 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="123"/>
-      <c r="B47" s="252"/>
-      <c r="C47" s="251"/>
+      <c r="B47" s="243"/>
+      <c r="C47" s="224"/>
       <c r="D47" s="127"/>
       <c r="E47" s="206">
         <v>24</v>
@@ -3581,8 +3581,8 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="123"/>
-      <c r="B48" s="223"/>
-      <c r="C48" s="251"/>
+      <c r="B48" s="244"/>
+      <c r="C48" s="224"/>
       <c r="D48" s="127"/>
       <c r="E48" s="206">
         <v>25</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="123"/>
-      <c r="B52" s="235">
+      <c r="B52" s="251">
         <v>30</v>
       </c>
-      <c r="C52" s="234" t="s">
+      <c r="C52" s="255" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="127"/>
@@ -3657,8 +3657,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="123"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="234"/>
+      <c r="B53" s="251"/>
+      <c r="C53" s="255"/>
       <c r="D53" s="127"/>
       <c r="E53" s="206">
         <v>27</v>
@@ -3671,8 +3671,8 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="123"/>
-      <c r="B54" s="235"/>
-      <c r="C54" s="234"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="255"/>
       <c r="D54" s="127"/>
       <c r="E54" s="206">
         <v>28</v>
@@ -3685,8 +3685,8 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="123"/>
-      <c r="B55" s="235"/>
-      <c r="C55" s="234"/>
+      <c r="B55" s="251"/>
+      <c r="C55" s="255"/>
       <c r="D55" s="127"/>
       <c r="E55" s="206">
         <v>29</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="123"/>
-      <c r="B66" s="228">
+      <c r="B66" s="225">
         <v>41</v>
       </c>
-      <c r="C66" s="231" t="s">
+      <c r="C66" s="240" t="s">
         <v>105</v>
       </c>
       <c r="D66" s="122"/>
@@ -3870,8 +3870,8 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="123"/>
-      <c r="B67" s="255"/>
-      <c r="C67" s="256"/>
+      <c r="B67" s="248"/>
+      <c r="C67" s="250"/>
       <c r="D67" s="122"/>
       <c r="E67" s="209">
         <v>34</v>
@@ -3884,8 +3884,8 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="123"/>
-      <c r="B68" s="230"/>
-      <c r="C68" s="233"/>
+      <c r="B68" s="249"/>
+      <c r="C68" s="241"/>
       <c r="D68" s="122"/>
       <c r="E68" s="209">
         <v>35</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="123"/>
-      <c r="B75" s="220">
+      <c r="B75" s="242">
         <v>48</v>
       </c>
-      <c r="C75" s="224" t="s">
+      <c r="C75" s="246" t="s">
         <v>208</v>
       </c>
       <c r="D75" s="127"/>
@@ -4007,8 +4007,8 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="123"/>
-      <c r="B76" s="222"/>
-      <c r="C76" s="226"/>
+      <c r="B76" s="256"/>
+      <c r="C76" s="252"/>
       <c r="D76" s="127"/>
       <c r="E76" s="206">
         <v>38</v>
@@ -4021,8 +4021,8 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="123"/>
-      <c r="B77" s="222"/>
-      <c r="C77" s="226"/>
+      <c r="B77" s="256"/>
+      <c r="C77" s="252"/>
       <c r="D77" s="127"/>
       <c r="E77" s="206">
         <v>39</v>
@@ -4035,8 +4035,8 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="123"/>
-      <c r="B78" s="252"/>
-      <c r="C78" s="258"/>
+      <c r="B78" s="243"/>
+      <c r="C78" s="253"/>
       <c r="D78" s="127"/>
       <c r="E78" s="201">
         <v>40</v>
@@ -4049,8 +4049,8 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="123"/>
-      <c r="B79" s="252"/>
-      <c r="C79" s="258"/>
+      <c r="B79" s="243"/>
+      <c r="C79" s="253"/>
       <c r="D79" s="127"/>
       <c r="E79" s="201">
         <v>41</v>
@@ -4063,8 +4063,8 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="123"/>
-      <c r="B80" s="223"/>
-      <c r="C80" s="227"/>
+      <c r="B80" s="244"/>
+      <c r="C80" s="254"/>
       <c r="D80" s="127"/>
       <c r="E80" s="201"/>
       <c r="F80" s="120"/>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="123"/>
-      <c r="B87" s="236">
+      <c r="B87" s="263">
         <v>55</v>
       </c>
-      <c r="C87" s="238" t="s">
+      <c r="C87" s="266" t="s">
         <v>58</v>
       </c>
       <c r="D87" s="122"/>
@@ -4175,8 +4175,8 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="123"/>
-      <c r="B88" s="236"/>
-      <c r="C88" s="238"/>
+      <c r="B88" s="263"/>
+      <c r="C88" s="266"/>
       <c r="D88" s="122"/>
       <c r="E88" s="209">
         <v>43</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="96" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="123"/>
-      <c r="B96" s="236">
+      <c r="B96" s="263">
         <v>63</v>
       </c>
-      <c r="C96" s="238" t="s">
+      <c r="C96" s="266" t="s">
         <v>34</v>
       </c>
       <c r="D96" s="122"/>
@@ -4308,8 +4308,8 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="123"/>
-      <c r="B97" s="236"/>
-      <c r="C97" s="238"/>
+      <c r="B97" s="263"/>
+      <c r="C97" s="266"/>
       <c r="D97" s="122"/>
       <c r="E97" s="203">
         <v>45</v>
@@ -4322,8 +4322,8 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="123"/>
-      <c r="B98" s="236"/>
-      <c r="C98" s="238"/>
+      <c r="B98" s="263"/>
+      <c r="C98" s="266"/>
       <c r="D98" s="122"/>
       <c r="E98" s="203">
         <v>46</v>
@@ -4336,8 +4336,8 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="123"/>
-      <c r="B99" s="236"/>
-      <c r="C99" s="238"/>
+      <c r="B99" s="263"/>
+      <c r="C99" s="266"/>
       <c r="D99" s="122"/>
       <c r="E99" s="203">
         <v>47</v>
@@ -4350,8 +4350,8 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="123"/>
-      <c r="B100" s="236"/>
-      <c r="C100" s="238"/>
+      <c r="B100" s="263"/>
+      <c r="C100" s="266"/>
       <c r="D100" s="122"/>
       <c r="E100" s="203">
         <v>48</v>
@@ -4364,8 +4364,8 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="123"/>
-      <c r="B101" s="236"/>
-      <c r="C101" s="238"/>
+      <c r="B101" s="263"/>
+      <c r="C101" s="266"/>
       <c r="D101" s="122"/>
       <c r="E101" s="203"/>
       <c r="F101" s="119"/>
@@ -4374,8 +4374,8 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="123"/>
-      <c r="B102" s="236"/>
-      <c r="C102" s="238"/>
+      <c r="B102" s="263"/>
+      <c r="C102" s="266"/>
       <c r="D102" s="122"/>
       <c r="E102" s="203">
         <v>49</v>
@@ -4388,8 +4388,8 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="123"/>
-      <c r="B103" s="236"/>
-      <c r="C103" s="238"/>
+      <c r="B103" s="263"/>
+      <c r="C103" s="266"/>
       <c r="D103" s="122"/>
       <c r="E103" s="203">
         <v>50</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="123"/>
-      <c r="B110" s="235">
+      <c r="B110" s="251">
         <v>70</v>
       </c>
-      <c r="C110" s="234" t="s">
+      <c r="C110" s="255" t="s">
         <v>37</v>
       </c>
       <c r="D110" s="127"/>
@@ -4513,8 +4513,8 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="123"/>
-      <c r="B111" s="257"/>
-      <c r="C111" s="251"/>
+      <c r="B111" s="221"/>
+      <c r="C111" s="224"/>
       <c r="D111" s="127"/>
       <c r="E111" s="200">
         <v>54</v>
@@ -4569,17 +4569,17 @@
     </row>
     <row r="115" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A115" s="123"/>
-      <c r="B115" s="220">
+      <c r="B115" s="242">
         <v>74</v>
       </c>
-      <c r="C115" s="224" t="s">
+      <c r="C115" s="246" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="127"/>
       <c r="E115" s="201">
         <v>55</v>
       </c>
-      <c r="F115" s="283" t="s">
+      <c r="F115" s="220" t="s">
         <v>284</v>
       </c>
       <c r="H115" s="57"/>
@@ -4587,8 +4587,8 @@
     </row>
     <row r="116" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A116" s="123"/>
-      <c r="B116" s="253"/>
-      <c r="C116" s="254"/>
+      <c r="B116" s="245"/>
+      <c r="C116" s="247"/>
       <c r="D116" s="127"/>
       <c r="E116" s="201">
         <v>56</v>
@@ -5060,10 +5060,10 @@
     </row>
     <row r="122" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A122" s="123"/>
-      <c r="B122" s="220">
+      <c r="B122" s="242">
         <v>80</v>
       </c>
-      <c r="C122" s="224" t="s">
+      <c r="C122" s="246" t="s">
         <v>55</v>
       </c>
       <c r="D122" s="127"/>
@@ -5267,8 +5267,8 @@
     </row>
     <row r="123" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A123" s="123"/>
-      <c r="B123" s="221"/>
-      <c r="C123" s="225"/>
+      <c r="B123" s="257"/>
+      <c r="C123" s="269"/>
       <c r="D123" s="127"/>
       <c r="E123" s="201">
         <v>60</v>
@@ -5470,8 +5470,8 @@
     </row>
     <row r="124" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A124" s="123"/>
-      <c r="B124" s="221"/>
-      <c r="C124" s="225"/>
+      <c r="B124" s="257"/>
+      <c r="C124" s="269"/>
       <c r="D124" s="127"/>
       <c r="E124" s="201">
         <v>61</v>
@@ -5673,8 +5673,8 @@
     </row>
     <row r="125" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A125" s="123"/>
-      <c r="B125" s="222"/>
-      <c r="C125" s="226"/>
+      <c r="B125" s="256"/>
+      <c r="C125" s="252"/>
       <c r="D125" s="127"/>
       <c r="E125" s="201">
         <v>62</v>
@@ -5876,8 +5876,8 @@
     </row>
     <row r="126" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A126" s="123"/>
-      <c r="B126" s="223"/>
-      <c r="C126" s="227"/>
+      <c r="B126" s="244"/>
+      <c r="C126" s="254"/>
       <c r="D126" s="127"/>
       <c r="E126" s="201">
         <v>63</v>
@@ -6693,10 +6693,10 @@
     </row>
     <row r="130" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A130" s="123"/>
-      <c r="B130" s="235">
+      <c r="B130" s="251">
         <v>84</v>
       </c>
-      <c r="C130" s="234" t="s">
+      <c r="C130" s="255" t="s">
         <v>210</v>
       </c>
       <c r="D130" s="127"/>
@@ -6900,8 +6900,8 @@
     </row>
     <row r="131" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A131" s="123"/>
-      <c r="B131" s="235"/>
-      <c r="C131" s="234"/>
+      <c r="B131" s="251"/>
+      <c r="C131" s="255"/>
       <c r="D131" s="127"/>
       <c r="E131" s="201">
         <v>66</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="134" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A134" s="123"/>
-      <c r="B134" s="228">
+      <c r="B134" s="225">
         <v>87</v>
       </c>
-      <c r="C134" s="231" t="s">
+      <c r="C134" s="240" t="s">
         <v>211</v>
       </c>
       <c r="D134" s="122"/>
@@ -7535,8 +7535,8 @@
     </row>
     <row r="135" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A135" s="123"/>
-      <c r="B135" s="229"/>
-      <c r="C135" s="232"/>
+      <c r="B135" s="270"/>
+      <c r="C135" s="271"/>
       <c r="D135" s="122"/>
       <c r="E135" s="203">
         <v>70</v>
@@ -7549,8 +7549,8 @@
     </row>
     <row r="136" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A136" s="123"/>
-      <c r="B136" s="230"/>
-      <c r="C136" s="233"/>
+      <c r="B136" s="249"/>
+      <c r="C136" s="241"/>
       <c r="D136" s="122"/>
       <c r="E136" s="203">
         <v>71</v>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="123"/>
-      <c r="B161" s="235">
+      <c r="B161" s="251">
         <v>112</v>
       </c>
-      <c r="C161" s="234" t="s">
+      <c r="C161" s="255" t="s">
         <v>212</v>
       </c>
       <c r="D161" s="127"/>
@@ -7966,8 +7966,8 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="123"/>
-      <c r="B162" s="237"/>
-      <c r="C162" s="234"/>
+      <c r="B162" s="268"/>
+      <c r="C162" s="255"/>
       <c r="D162" s="127"/>
       <c r="E162" s="201">
         <v>83</v>
@@ -7980,10 +7980,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="123"/>
-      <c r="B163" s="228">
+      <c r="B163" s="225">
         <v>113</v>
       </c>
-      <c r="C163" s="231" t="s">
+      <c r="C163" s="240" t="s">
         <v>49</v>
       </c>
       <c r="D163" s="122"/>
@@ -7998,8 +7998,8 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="123"/>
-      <c r="B164" s="239"/>
-      <c r="C164" s="240"/>
+      <c r="B164" s="227"/>
+      <c r="C164" s="230"/>
       <c r="D164" s="122"/>
       <c r="E164" s="209">
         <v>85</v>
@@ -8070,10 +8070,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="151"/>
-      <c r="B169" s="235">
+      <c r="B169" s="251">
         <v>118</v>
       </c>
-      <c r="C169" s="234" t="s">
+      <c r="C169" s="255" t="s">
         <v>51</v>
       </c>
       <c r="D169" s="127"/>
@@ -8088,8 +8088,8 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="123"/>
-      <c r="B170" s="235"/>
-      <c r="C170" s="234"/>
+      <c r="B170" s="251"/>
+      <c r="C170" s="255"/>
       <c r="D170" s="127"/>
       <c r="E170" s="201">
         <v>87</v>
@@ -8102,8 +8102,8 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="123"/>
-      <c r="B171" s="235"/>
-      <c r="C171" s="234"/>
+      <c r="B171" s="251"/>
+      <c r="C171" s="255"/>
       <c r="D171" s="127"/>
       <c r="E171" s="201">
         <v>88</v>
@@ -8116,8 +8116,8 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="123"/>
-      <c r="B172" s="235"/>
-      <c r="C172" s="234"/>
+      <c r="B172" s="251"/>
+      <c r="C172" s="255"/>
       <c r="D172" s="127"/>
       <c r="E172" s="201">
         <v>89</v>
@@ -8130,8 +8130,8 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="123"/>
-      <c r="B173" s="235"/>
-      <c r="C173" s="234"/>
+      <c r="B173" s="251"/>
+      <c r="C173" s="255"/>
       <c r="D173" s="127"/>
       <c r="E173" s="201">
         <v>90</v>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="123"/>
-      <c r="B174" s="228">
+      <c r="B174" s="225">
         <v>119</v>
       </c>
-      <c r="C174" s="231" t="s">
+      <c r="C174" s="240" t="s">
         <v>76</v>
       </c>
       <c r="D174" s="122"/>
@@ -8162,8 +8162,8 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="123"/>
-      <c r="B175" s="242"/>
-      <c r="C175" s="241"/>
+      <c r="B175" s="226"/>
+      <c r="C175" s="229"/>
       <c r="D175" s="122"/>
       <c r="E175" s="209">
         <v>92</v>
@@ -8176,8 +8176,8 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="123"/>
-      <c r="B176" s="242"/>
-      <c r="C176" s="241"/>
+      <c r="B176" s="226"/>
+      <c r="C176" s="229"/>
       <c r="D176" s="122"/>
       <c r="E176" s="209">
         <v>93</v>
@@ -8190,8 +8190,8 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="123"/>
-      <c r="B177" s="239"/>
-      <c r="C177" s="240"/>
+      <c r="B177" s="227"/>
+      <c r="C177" s="230"/>
       <c r="D177" s="122"/>
       <c r="E177" s="209">
         <v>94</v>
@@ -8222,10 +8222,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="123"/>
-      <c r="B179" s="236">
+      <c r="B179" s="263">
         <v>121</v>
       </c>
-      <c r="C179" s="238" t="s">
+      <c r="C179" s="266" t="s">
         <v>53</v>
       </c>
       <c r="D179" s="122"/>
@@ -8240,8 +8240,8 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="123"/>
-      <c r="B180" s="236"/>
-      <c r="C180" s="238"/>
+      <c r="B180" s="263"/>
+      <c r="C180" s="266"/>
       <c r="D180" s="122"/>
       <c r="E180" s="209">
         <v>97</v>
@@ -8352,10 +8352,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="123"/>
-      <c r="B188" s="228">
+      <c r="B188" s="225">
         <v>129</v>
       </c>
-      <c r="C188" s="261" t="s">
+      <c r="C188" s="228" t="s">
         <v>195</v>
       </c>
       <c r="D188" s="122"/>
@@ -8366,8 +8366,8 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="123"/>
-      <c r="B189" s="242"/>
-      <c r="C189" s="241"/>
+      <c r="B189" s="226"/>
+      <c r="C189" s="229"/>
       <c r="D189" s="122"/>
       <c r="E189" s="209">
         <v>98</v>
@@ -8380,8 +8380,8 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="123"/>
-      <c r="B190" s="239"/>
-      <c r="C190" s="240"/>
+      <c r="B190" s="227"/>
+      <c r="C190" s="230"/>
       <c r="D190" s="122"/>
       <c r="E190" s="209"/>
       <c r="F190" s="124"/>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="123"/>
-      <c r="B195" s="264">
+      <c r="B195" s="233">
         <v>1</v>
       </c>
-      <c r="C195" s="262" t="s">
+      <c r="C195" s="231" t="s">
         <v>220</v>
       </c>
       <c r="D195" s="122"/>
@@ -8444,8 +8444,8 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="123"/>
-      <c r="B196" s="265"/>
-      <c r="C196" s="263"/>
+      <c r="B196" s="234"/>
+      <c r="C196" s="232"/>
       <c r="D196" s="122"/>
       <c r="E196" s="184">
         <v>100</v>
@@ -8458,16 +8458,16 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="123"/>
-      <c r="B197" s="266"/>
-      <c r="C197" s="241"/>
+      <c r="B197" s="235"/>
+      <c r="C197" s="229"/>
       <c r="D197" s="122"/>
       <c r="E197" s="184"/>
       <c r="F197" s="124"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="123"/>
-      <c r="B198" s="267"/>
-      <c r="C198" s="240"/>
+      <c r="B198" s="236"/>
+      <c r="C198" s="230"/>
       <c r="D198" s="122"/>
       <c r="E198" s="184">
         <v>101</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="123"/>
-      <c r="B200" s="269">
+      <c r="B200" s="238">
         <v>3</v>
       </c>
-      <c r="C200" s="262" t="s">
+      <c r="C200" s="231" t="s">
         <v>222</v>
       </c>
       <c r="D200" s="123"/>
@@ -8506,8 +8506,8 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="123"/>
-      <c r="B201" s="270"/>
-      <c r="C201" s="268"/>
+      <c r="B201" s="239"/>
+      <c r="C201" s="237"/>
       <c r="D201" s="123"/>
       <c r="E201" s="160">
         <v>103</v>
@@ -8574,10 +8574,10 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="55"/>
-      <c r="B206" s="257">
+      <c r="B206" s="221">
         <v>8</v>
       </c>
-      <c r="C206" s="260" t="s">
+      <c r="C206" s="223" t="s">
         <v>226</v>
       </c>
       <c r="D206" s="61"/>
@@ -8592,8 +8592,8 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="55"/>
-      <c r="B207" s="259"/>
-      <c r="C207" s="251"/>
+      <c r="B207" s="222"/>
+      <c r="C207" s="224"/>
       <c r="D207" s="61"/>
       <c r="E207" s="154">
         <v>105</v>
@@ -8606,8 +8606,8 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="55"/>
-      <c r="B208" s="259"/>
-      <c r="C208" s="251"/>
+      <c r="B208" s="222"/>
+      <c r="C208" s="224"/>
       <c r="D208" s="61"/>
       <c r="E208" s="154">
         <v>106</v>
@@ -8620,8 +8620,8 @@
     </row>
     <row r="209" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="55"/>
-      <c r="B209" s="259"/>
-      <c r="C209" s="251"/>
+      <c r="B209" s="222"/>
+      <c r="C209" s="224"/>
       <c r="D209" s="61"/>
       <c r="E209" s="154">
         <v>107</v>
@@ -8849,25 +8849,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="B174:B177"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B1:I1"/>
@@ -8884,22 +8881,25 @@
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="C96:C103"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="B200:B201"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.15748031496062992"/>
@@ -8920,7 +8920,7 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8939,18 +8939,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -8980,19 +8980,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="274"/>
+      <c r="F5" s="275"/>
       <c r="G5" s="46" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="274"/>
+      <c r="K5" s="275"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
@@ -9471,13 +9471,13 @@
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
-      <c r="B35" s="277"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="278"/>
-      <c r="E35" s="278"/>
-      <c r="F35" s="278"/>
-      <c r="G35" s="278"/>
-      <c r="H35" s="278"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="75"/>
-      <c r="B37" s="275"/>
-      <c r="C37" s="276"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="276"/>
-      <c r="F37" s="276"/>
-      <c r="G37" s="276"/>
-      <c r="H37" s="276"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="277"/>
+      <c r="E37" s="277"/>
+      <c r="F37" s="277"/>
+      <c r="G37" s="277"/>
+      <c r="H37" s="277"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -10719,8 +10719,8 @@
   </sheetPr>
   <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10740,18 +10740,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="282"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -10781,19 +10781,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="282"/>
+      <c r="F5" s="283"/>
       <c r="G5" s="40" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="282" t="s">
+      <c r="J5" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="282"/>
+      <c r="K5" s="283"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
